--- a/Taller2-04-r.cardenas11-f.martinez11/docs/Pruebas.xlsx
+++ b/Taller2-04-r.cardenas11-f.martinez11/docs/Pruebas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -36,10 +36,16 @@
     <t>Se actualiza alguna de las bodegas. En la tabla alojamiento_bodega. Se elimina la fila correspondiente de la tabla Cargar_maritima.</t>
   </si>
   <si>
-    <t>id_carga: 1, id_buque:20</t>
-  </si>
-  <si>
     <t>No se deben actualizar las tablas alojamiento_bodega ni Cargar_maritima, ya que dicho buque no posee la carga descrita.</t>
+  </si>
+  <si>
+    <t>id_carga: 20, id_buque:1</t>
+  </si>
+  <si>
+    <t>id_carga: 2, id_buque:2</t>
+  </si>
+  <si>
+    <t>id_carga: 3, id_buque:3</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,10 +430,32 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Taller2-04-r.cardenas11-f.martinez11/docs/Pruebas.xlsx
+++ b/Taller2-04-r.cardenas11-f.martinez11/docs/Pruebas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="3590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Requerimiento</t>
   </si>
@@ -46,6 +47,20 @@
   </si>
   <si>
     <t>id_carga: 3, id_buque:3</t>
+  </si>
+  <si>
+    <t>Requerimiento 10</t>
+  </si>
+  <si>
+    <t>"ID_OPERACION" :4,
+    "ID_CARGA_MARITIMA" :4,
+    "ID_MUELLE":7,
+    "ID_CARGA":4,
+    "ID_BUQUE":11,
+    "ID_EQUIPO_APOYO":6</t>
+  </si>
+  <si>
+    <t>Se actualiza la tabla Cargar_Maritima con la informacion Se elimina la fila correspondiente de la tabla Alojamiento_Bodega dada por el id de la carga.</t>
   </si>
 </sst>
 </file>
@@ -96,6 +111,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -143,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,23 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -425,7 +443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -436,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -447,7 +465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -456,6 +474,17 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -482,7 +511,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
